--- a/asset_tags_list1.xlsx
+++ b/asset_tags_list1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/CCS RTD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EA7602-FFED-E64C-8407-FDD3F5A819AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B058F-EDEC-4E4D-9201-8FD671356B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1500" windowWidth="26840" windowHeight="15820" xr2:uid="{F382DC95-34AF-B545-84A3-81E5EFC974E4}"/>
+    <workbookView xWindow="9540" yWindow="1940" windowWidth="26840" windowHeight="15820" xr2:uid="{F382DC95-34AF-B545-84A3-81E5EFC974E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>Hard Investments (CAPEX)</t>
   </si>
@@ -153,13 +153,52 @@
   </si>
   <si>
     <t>Urban Streets</t>
+  </si>
+  <si>
+    <t>Asset Level 1</t>
+  </si>
+  <si>
+    <t>Roads</t>
+  </si>
+  <si>
+    <t>Transit</t>
+  </si>
+  <si>
+    <t>Bridges</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>Inland Waterways</t>
+  </si>
+  <si>
+    <t>Aviation</t>
+  </si>
+  <si>
+    <t>Drinking Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Hazardous Waste, Soilid Waste</t>
+  </si>
+  <si>
+    <t>Stormwater</t>
+  </si>
+  <si>
+    <t>Schools</t>
+  </si>
+  <si>
+    <t>Drinking Water, Waste Water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +209,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -196,9 +243,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,173 +561,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800858BF-E020-D242-A216-A56542AB79FF}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="77.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>

--- a/asset_tags_list1.xlsx
+++ b/asset_tags_list1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/CCS RTD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B058F-EDEC-4E4D-9201-8FD671356B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410FE3C3-230A-AC4C-8226-2FAD805FB694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="1940" windowWidth="26840" windowHeight="15820" xr2:uid="{F382DC95-34AF-B545-84A3-81E5EFC974E4}"/>
+    <workbookView xWindow="23740" yWindow="2020" windowWidth="26840" windowHeight="15820" xr2:uid="{F382DC95-34AF-B545-84A3-81E5EFC974E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Hard Investments (CAPEX)</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>Hazardous Waste, Soilid Waste</t>
-  </si>
-  <si>
     <t>Stormwater</t>
   </si>
   <si>
@@ -192,6 +189,30 @@
   </si>
   <si>
     <t>Drinking Water, Waste Water</t>
+  </si>
+  <si>
+    <t>Hazardous Waste, Solid Waste</t>
+  </si>
+  <si>
+    <t>Energy, Land Rehabilitation</t>
+  </si>
+  <si>
+    <t>Energy, Inland Waterways</t>
+  </si>
+  <si>
+    <t>Ports, Energy</t>
+  </si>
+  <si>
+    <t>Hazardous Waste, Energy</t>
+  </si>
+  <si>
+    <t>Broadband</t>
+  </si>
+  <si>
+    <t>Energy, Transit</t>
+  </si>
+  <si>
+    <t>Transit, Schools</t>
   </si>
 </sst>
 </file>
@@ -563,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800858BF-E020-D242-A216-A56542AB79FF}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,13 +726,16 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -727,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -735,7 +759,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -743,7 +767,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -751,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -759,7 +783,7 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -767,7 +791,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -807,52 +831,79 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
